--- a/docs/Getana_Deliverable_2_ProductBacklog.xlsx
+++ b/docs/Getana_Deliverable_2_ProductBacklog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshyam\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -702,37 +702,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="69.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
+    <col min="2" max="2" width="69.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="1025" width="11.5546875"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -752,7 +752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -772,7 +772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -812,7 +812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>15</v>
       </c>
@@ -892,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>21</v>
       </c>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>10</v>
       </c>
@@ -932,7 +932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>12</v>
       </c>
@@ -972,7 +972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>4</v>
       </c>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="52" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>16</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="65" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>14</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>6</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>13</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="39" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>20</v>
       </c>
@@ -1172,19 +1172,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="5" t="s">
         <v>52</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="5" t="s">
         <v>56</v>
       </c>

--- a/docs/Getana_Deliverable_2_ProductBacklog.xlsx
+++ b/docs/Getana_Deliverable_2_ProductBacklog.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>

--- a/docs/Getana_Deliverable_2_ProductBacklog.xlsx
+++ b/docs/Getana_Deliverable_2_ProductBacklog.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brodywilliams/Repositories/RaiderNAV/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshyam\Downloads\Raidernav\RaiderNAV\docs\deliverable 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 2" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="77">
+  <si>
+    <t>PRODUCT BACKLOG — DELIVERABLE 2</t>
+  </si>
   <si>
     <t>One user story per row. This document must be updated at minimum at the beginning and end of sprints.</t>
   </si>
@@ -53,78 +57,84 @@
     <t>As a user, I want to be able to add my class schedule (course building, time) for the day to the app, so that I can receive complete and correct walking directions to each building in order from the app.</t>
   </si>
   <si>
+    <t>H, 1</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to save my schedule for the day and give it a name so that I can recall it quickly in the future.</t>
+  </si>
+  <si>
+    <t>H, 2</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to save and recall multiple schedules, because I may not have the same schedule every day.</t>
+  </si>
+  <si>
+    <t>H, 3</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to automatically determine the geographical location of buildings that my classes are in based only on the name of the building as provided by the schedule in the TTU registration system, so that I can easily have my schedule generated without research or prior knowledge of where the buildings are.</t>
+  </si>
+  <si>
+    <t>H, 4</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to show me the shortest walking route between classes, so that I can arrive as quickly as possible in the event that I am running late.</t>
+  </si>
+  <si>
+    <t>undecided</t>
+  </si>
+  <si>
+    <t>H, 5</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to regularly update and display my current location on the navigation map, so that I can more easily follow the directions provided by the app.</t>
+  </si>
+  <si>
+    <t>H, 6</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to recalculate the shortest path to the next destination in my schedule with the push of a ‘recalculate’ button, in the event that I veer from the original route and require new directions.</t>
+  </si>
+  <si>
+    <t>H, 7</t>
+  </si>
+  <si>
+    <t>As a user, I want to be presented with a message the first time I load the app that informs me of the privacy implications of using the app, so that I am aware of how my information is being handled.</t>
+  </si>
+  <si>
+    <t>H, 8</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to show me an estimated amount of time to travel from my current location to the next destination in my schedule, so that I can react with more urgency if I am in danger of being late.</t>
+  </si>
+  <si>
+    <t>M, 9</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to tell me how much time is available until my next class begins, so that I can more easily fit unscheduled activities into my day without calculating myself the amount of time available until class begins.</t>
+  </si>
+  <si>
+    <t>M, 10</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to notify me with special messages when I am in danger of being late to class, based on the time the class begins and the travel time necessary to reach the building, so that I can afford to be distracted and do not have to constantly check the app.</t>
+  </si>
+  <si>
+    <t>M, 11</t>
+  </si>
+  <si>
+    <t>As a user, I want to be able to easily delete saved schedules, in case my schedule changes or I have progressed to a new term with different classes, so that I am not encumbered by schedules that are no longer relevant.</t>
+  </si>
+  <si>
     <t>Undecided</t>
   </si>
   <si>
-    <t>H, 1</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to save my schedule for the day and give it a name so that I can recall it quickly in the future.</t>
-  </si>
-  <si>
-    <t>H, 2</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to save and recall multiple schedules, because I may not have the same schedule every day.</t>
-  </si>
-  <si>
-    <t>H, 3</t>
-  </si>
-  <si>
-    <t>As a user, I want the app to automatically determine the geographical location of buildings that my classes are in based only on the name of the building as provided by the schedule in the TTU registration system, so that I can easily have my schedule generated without research or prior knowledge of where the buildings are.</t>
-  </si>
-  <si>
-    <t>H, 4</t>
-  </si>
-  <si>
-    <t>As a user, I want the app to show me the shortest walking route between classes, so that I can arrive as quickly as possible in the event that I am running late.</t>
-  </si>
-  <si>
-    <t>H, 5</t>
-  </si>
-  <si>
-    <t>As a user, I want the app to regularly update and display my current location on the navigation map, so that I can more easily follow the directions provided by the app.</t>
-  </si>
-  <si>
-    <t>H, 6</t>
-  </si>
-  <si>
-    <t>As a user, I want the app to recalculate the shortest path to the next destination in my schedule with the push of a ‘recalculate’ button, in the event that I veer from the original route and require new directions.</t>
-  </si>
-  <si>
-    <t>H, 7</t>
-  </si>
-  <si>
-    <t>As a user, I want to be presented with a message the first time I load the app that informs me of the privacy implications of using the app, so that I am aware of how my information is being handled.</t>
-  </si>
-  <si>
-    <t>H, 8</t>
-  </si>
-  <si>
-    <t>As a user, I want the app to show me an estimated amount of time to travel from my current location to the next destination in my schedule, so that I can react with more urgency if I am in danger of being late.</t>
-  </si>
-  <si>
-    <t>M, 9</t>
-  </si>
-  <si>
-    <t>As a user, I want the app to tell me how much time is available until my next class begins, so that I can more easily fit unscheduled activities into my day without calculating myself the amount of time available until class begins.</t>
-  </si>
-  <si>
-    <t>M, 10</t>
-  </si>
-  <si>
-    <t>As a user, I want the app to notify me with special messages when I am in danger of being late to class, based on the time the class begins and the travel time necessary to reach the building, so that I can afford to be distracted and do not have to constantly check the app.</t>
-  </si>
-  <si>
-    <t>M, 11</t>
-  </si>
-  <si>
-    <t>As a user, I want to be able to easily delete saved schedules, in case my schedule changes or I have progressed to a new term with different classes, so that I am not encumbered by schedules that are no longer relevant.</t>
-  </si>
-  <si>
     <t>M, 12</t>
   </si>
   <si>
@@ -134,7 +144,7 @@
     <t>M, 13</t>
   </si>
   <si>
-    <t>As a user, I want to be able to mark a class as temporarily cancelled for the day and have directions and scheduling in the app updated accordingly, but have the regular schedule resumed the next day, so that I do not receive unnecessary notifications, reminders, or directions for classes I will not be attending that day.</t>
+    <t>As a user, I want to be able to mark a class as temporarily canceled for the day, so that I do not receive unnecessary notifications, reminders, or directions for classes I will not be attending that day.</t>
   </si>
   <si>
     <t>M, 14</t>
@@ -182,6 +192,45 @@
     <t>L, 21</t>
   </si>
   <si>
+    <t>New Backlog Items:</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to show me the nearest vending machine location at the push of a button, so that I can avoid excessive travel when I am hungry/thirsty.</t>
+  </si>
+  <si>
+    <t>← Arpit’s idea</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to show me shortest paths which include bus routes, so that I can reach very far destinations on campus quickly.</t>
+  </si>
+  <si>
+    <t>← from presentation feedback</t>
+  </si>
+  <si>
+    <t>As a user, I want a quick-find feature so that I can find the nearest path to a single destination without inputting a schedule.</t>
+  </si>
+  <si>
+    <t>← from focus group</t>
+  </si>
+  <si>
+    <t>As a user, I want the ability to share a location with another user of the app, so that I can easily communicate an intended location to friends.</t>
+  </si>
+  <si>
+    <t>← from deliverable 0 feedback</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to collect a minimal amount of private information about me to perform its work, so that I maintain control of my private information.</t>
+  </si>
+  <si>
+    <t>As a user, I want the app to be secure, so that information collected by the app is not shared with unintended parties.</t>
+  </si>
+  <si>
+    <t>Updated user story 18, per deliverable 0 feedback.</t>
+  </si>
+  <si>
+    <t>Need to insert suggestions from focus group results.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Story Priorities: </t>
   </si>
   <si>
@@ -207,22 +256,13 @@
   </si>
   <si>
     <t>D (done)</t>
-  </si>
-  <si>
-    <t>undecided</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>PRODUCT BACKLOG — DELIVERABLE 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -249,15 +289,35 @@
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -298,27 +358,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -361,7 +431,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFEB9C"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -378,7 +448,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF9C5700"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -700,64 +770,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="69.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.5"/>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="1025" width="11.5"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="1025" width="11.44140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -765,14 +835,14 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>62</v>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -785,14 +855,14 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>62</v>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -805,14 +875,14 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>62</v>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -825,14 +895,14 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>62</v>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -840,379 +910,525 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>11</v>
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F23">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>11</v>
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>11</v>
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>13</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>11</v>
+        <v>52</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F28">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B33" s="5" t="s">
-        <v>52</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B34" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1223,4 +1439,670 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9A065E-4731-4DE3-908D-A57CA57C4E88}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>23</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Getana_Deliverable_2_ProductBacklog.xlsx
+++ b/docs/Getana_Deliverable_2_ProductBacklog.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshyam\Downloads\Raidernav\RaiderNAV\docs\deliverable 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakshyam\Downloads\Raidernav\RaiderNAV\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D2732E-B355-4617-951B-3E8B32305BC3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1445,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9A065E-4731-4DE3-908D-A57CA57C4E88}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1573,58 +1574,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
+        <v>51</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>21</v>
+        <v>52</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>21</v>
@@ -1633,118 +1634,118 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18">
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>21</v>
@@ -1755,142 +1756,142 @@
     </row>
     <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22">
+      <c r="E23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23">
+      <c r="E24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>6</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>11</v>
+      <c r="E27" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
